--- a/Interaction logs/로그_영택.xlsx
+++ b/Interaction logs/로그_영택.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="0" windowWidth="19020" windowHeight="11490"/>
+    <workbookView xWindow="8610" yWindow="0" windowWidth="19020" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="interaction idiom restructuring" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,721 +29,657 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
-  <si>
-    <t>타임스탬프</t>
-  </si>
-  <si>
-    <t>부서</t>
-  </si>
-  <si>
-    <t>Q.1 직급이 무엇인가요?</t>
-  </si>
-  <si>
-    <t>Q.2 소스 코드 품질에 있어 가장 중요한 순서대로 해당 번호를 적어 주세요. 보기에 없는 경우 직접 적으셔도됩니다.</t>
-  </si>
-  <si>
-    <t>Q.25 소스 코드의 품질에 있어 가장 중요한 순서대로 해당 번호를 적어 주세요. 보기에 없는 경우 직접 적으셔도됩니다.</t>
-  </si>
-  <si>
-    <t>Q.3 (자신을 포함한 다른 구성원들의 제품까지 포함해서)본인이 느끼는, 현재 본인의 파트에서 개발중인 제품 소스 코드의 품질에 대해 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.26 본인의 파트에서 개발중인 제품 소스 코드의 품질에 대해 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.4 위의 질문에 대한 답변을 선택한 이유를 적어주세요</t>
-  </si>
-  <si>
-    <t>Q.27 위 질문의 답변에 대한 이유를 적어주세요</t>
-  </si>
-  <si>
-    <t>Q.5 현재 SW개발팀의 소스 코드 품질 관리가 어떻게 이루어지고 있다고 생각하나요?</t>
-  </si>
-  <si>
-    <t>Q.28 현재 SW개발팀의 소스 코드 품질 관리가 어떻게 이루어지고 있다고 생각하나요?</t>
-  </si>
-  <si>
-    <t>Q.6 위의 질문에 대한 답변을 선택한 이유를 적어주세요</t>
-  </si>
-  <si>
-    <t>Q.29 위 질문의 답변에 대한 이유를 적어주세요</t>
-  </si>
-  <si>
-    <t>Q.7 소스코드 품질 개선을 위해 활용하고 있는 방법이 있다면 설명해 주세요.</t>
-  </si>
-  <si>
-    <t>Q.30 소스 코드 품질 개선을 위해 활용하고 있는 방법이 있다면 설명해 주세요.</t>
-  </si>
-  <si>
-    <t>Q.8 소스코드 품질이나 생산성을 주기적으로 기록하거나 모니터링하고 계신가요? 만약 그렇다면 어떤 방식으로 하고 계신지 간단히 설명해 주세요.</t>
-  </si>
-  <si>
-    <t>Q.31 소스 코드 품질이나 생산성을 주기적으로 기록하거나 모니터링하고 계신가요? 만약 그렇다면 어떤 방식으로 하고 계신지 간단히 설명해 주세요.</t>
-  </si>
-  <si>
-    <t>Q.9 개인의 차원에서 소스 코드 품질 관리에 대한 애로사항을 세 가지만 설명해 주세요</t>
-  </si>
-  <si>
-    <t>Q.32 소스 코드 품질 관리에 대한 애로사항을 세 가지만 설명해 주세요</t>
-  </si>
-  <si>
-    <t>Q.10 (1/14) CodeReview 완료률이 본인의 심리에 불편함을 주는 정도를 점수로 매겨주세요.</t>
-  </si>
-  <si>
-    <t>Q.33 (1/16) CodeReview Coverage가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.11 (2/14) CodeReview 참여률이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.34 (2/16) 작성된 CodeReview comment 수가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.12 (3/14) 작성한 CodeReview 커멘트 수가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.35 (3/16) CLOC가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.13 (4/14) CLOC가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.36 (4/16) Comment Ratio가 가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.14 (5/14) Comment Ratio가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.37 (5/16) 코드 복잡도(Complexity)가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.15 (6/14) 코드 복잡도(Complexity)가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.38 (6/16) 정적 분석 처리 현황이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.16 (7/14) 빌드성공률이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.39 (7/16) 빌드성공률이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.17 (8/14) 자주검증 TC 수가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.40 (8/16) 개발자 UT 개수가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.18 (9/14) QRT Delta Coverage가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.41 (9/16) TR 수가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.19 (10/14) Defect Density가 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.42 (10/16) QRT Delta Coverage가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.20 (11/14) Defect 해결률이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.43 (11/16) FRT Coverage가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.21 (12/14) 평균 Defect 해결시간이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.44 (12/16) Defect Density가 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.22 (13/14) 장기 미해결 Defect 목록이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.45 (13/16) Defect 해결률이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.23 (14/14) 티켓 해결률이 본인의 심리에 불편함을 주는 정도를 점수로 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.46 (14/16) 평균 Defect 해결시간이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.47 (15/16) 장기 미해결 Defect 목록이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
-  <si>
-    <t>Q.48 (16/16) 티켓 해결률이 필요한 정도를 점수를 매겨 주세요.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
   <si>
     <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>paramter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mouseclick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>action #1 (filtering)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time series 변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연도 -&gt; 분기 -&gt; 월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 항목만 유지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>back</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>max 점을 살펴봄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>열, 행에 데이터 삽입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>filtering</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>열 email 행 id(count)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정렬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>색상 변경 (Mark)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>레이블 달기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시트 2개 병치해서 보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연도별 필터링 걸고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Top 3 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>열에 연도, 행에 카운트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>=&gt; 이것 summary 해주는 것도 중요한 거 같다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arrange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Order</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arrange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Express</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bar Chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>by count(id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Label</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChartAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>label=data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lablepos=top</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Filter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Facet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Juxtapose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Copy&amp;Juxtapose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>horizontal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arrange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Manipulate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Select</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x=email, y=count(id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Express</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Line Chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x=year(author_date), y=filtered(count(id))</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y(year)=2011~2014</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Filter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChartAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ascending Top 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>selection 추가하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Brush</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x = ["bostock@gmail.com", "</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>추세선 추가하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>selection 추가하기 + select한 데이터 보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연도별</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>year=2011~2012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>year=2013~2014</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data의 동등한 component들이 동일한 기준으로 같이 변경될 때</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>앞에껄 다 지우고 다시 시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart 종류와 x,y축(data) 고르는 건 하나로 합친다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RULE===</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chart3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p_index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>barchart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>order</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>label 변환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>filter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>line chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>juxtapose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mean line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grouped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stacked</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>barchart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>linechart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>brush</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addLabel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>changeColor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>count(id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>orderBy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>copyAndJuxtapose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>email=["mbostock@gmail.com", "jason@jasondavies.com"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>filterRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>filterAscendingTop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>range=colorbrewer2.xxx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addAverageLine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Chart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>category</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>interaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parameters</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage는 만들어주는것, parent는 원래 로그에서 나오는 것.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>weight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NOTE Finding</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좋아요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특정영역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Manipulate:Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grouped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juxtapose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add analysis guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAverageLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data의 재배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=year(author_date), y=filtered(count(id)), color=filtered_previously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -771,6 +708,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -786,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -794,92 +739,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -888,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -900,7 +770,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,144 +1059,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.125" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>138</v>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="5" t="str">
         <f>F5&amp;":"&amp;G5</f>
         <v>Arrange:Chart</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="I5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H17" si="0">F6&amp;":"&amp;G6</f>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" ref="H6:H16" si="0">F6&amp;":"&amp;G6</f>
         <v>Arrange:Order</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>135</v>
+      <c r="I6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>141</v>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1331,38 +1204,38 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>Map:Color</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>142</v>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1370,35 +1243,35 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Map:Label</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>143</v>
+      <c r="B9" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1406,149 +1279,149 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>Manipulate:Select</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>135</v>
       </c>
       <c r="N9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="10" t="str">
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Manipulate:Select</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="J10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="10">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="10" t="str">
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Facet:Juxtapose</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="10">
+      <c r="I11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="10">
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10" t="str">
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Manipulate:Select</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="10">
+      <c r="I12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>127</v>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1556,74 +1429,74 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>126</v>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Manipulate:Select</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>120</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="10">
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="10" t="str">
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Arrange:Chart</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="I14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="5">
         <v>8</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>145</v>
+      <c r="N14" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>157</v>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1631,38 +1504,38 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>129</v>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>Map:Color</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>158</v>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1670,93 +1543,93 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>137</v>
+      <c r="E16" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Arrange:Express</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N19" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="I20" s="8"/>
+      <c r="I20" s="3"/>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N22" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N24" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N25" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1764,226 +1637,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1992,7 +1772,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2002,104 +1782,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>3100</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
         <v>3100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2109,7 +1889,7 @@
   <dimension ref="A4:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,255 +1904,255 @@
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>114</v>
+        <v>64</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K18" r:id="rId1" display="bostock@gmail.com"/>
   </hyperlinks>
@@ -2396,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2410,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2424,16 +2204,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2441,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2458,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2475,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2483,16 +2263,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>114</v>
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2500,16 +2280,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2517,16 +2297,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2534,66 +2314,66 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" display="bostock@gmail.com"/>
   </hyperlinks>

--- a/Interaction logs/로그_영택.xlsx
+++ b/Interaction logs/로그_영택.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lectures\17-2 InfoVis\Infovis term project\Interaction logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lectures\17-2 InfoVis\ReVA\Interaction logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="0" windowWidth="19020" windowHeight="11490"/>
+    <workbookView xWindow="9735" yWindow="0" windowWidth="13875" windowHeight="11490" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="5" r:id="rId1"/>
-    <sheet name="interaction idiom restructuring" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="interaction idiom restructuring" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="170">
   <si>
     <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,40 @@
   </si>
   <si>
     <t>x=year(author_date), y=filtered(count(id)), color=filtered_previously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrange:Chart</t>
+  </si>
+  <si>
+    <t>Arrange:Order</t>
+  </si>
+  <si>
+    <t>Map:Color</t>
+  </si>
+  <si>
+    <t>Map:Label</t>
+  </si>
+  <si>
+    <t>Facet:Juxtapose</t>
+  </si>
+  <si>
+    <t>Arrange:Express</t>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +750,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,13 +781,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -748,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +846,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="B4:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1172,7 @@
     <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="61.125" customWidth="1"/>
+    <col min="10" max="10" width="47.25" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1572,7 +1671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>134</v>
       </c>
@@ -1586,7 +1685,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
         <v>131</v>
       </c>
@@ -1597,33 +1702,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I20" s="3"/>
       <c r="N20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N25" t="s">
         <v>105</v>
       </c>
@@ -1637,9 +1742,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="C8:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="14">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="14">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="14">
+        <v>12</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +2117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1884,12 +2234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E23"/>
+      <selection activeCell="B6" sqref="B6:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1906,21 +2256,15 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1928,13 +2272,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2005,6 +2359,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" t="s">
         <v>36</v>
       </c>
@@ -2021,14 +2378,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
       <c r="H17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
@@ -2048,7 +2413,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -2078,9 +2443,6 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
       <c r="H21" t="s">
         <v>44</v>
       </c>
@@ -2088,15 +2450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2161,17 +2515,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2185,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2199,7 +2556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2215,8 +2572,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2232,8 +2592,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2249,16 +2612,22 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2274,8 +2643,11 @@
       <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2291,8 +2663,11 @@
       <c r="E8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I8" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2308,8 +2683,11 @@
       <c r="E9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I9" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2319,8 +2697,11 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -2333,8 +2714,11 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I11" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -2344,8 +2728,11 @@
       <c r="D12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -2355,8 +2742,11 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I13" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -2366,10 +2756,31 @@
       <c r="D14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>66</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="17" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
